--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8546833333333334</v>
+        <v>4.713280333333334</v>
       </c>
       <c r="H2">
-        <v>2.56405</v>
+        <v>14.139841</v>
       </c>
       <c r="I2">
-        <v>0.3097546281380015</v>
+        <v>0.6942627767023021</v>
       </c>
       <c r="J2">
-        <v>0.3097546281380014</v>
+        <v>0.6942627767023022</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N2">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O2">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P2">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q2">
-        <v>2.582762721794444</v>
+        <v>8.068842136192556</v>
       </c>
       <c r="R2">
-        <v>23.24486449615</v>
+        <v>72.61957922573301</v>
       </c>
       <c r="S2">
-        <v>0.04537198069894676</v>
+        <v>0.06822889664454065</v>
       </c>
       <c r="T2">
-        <v>0.04537198069894675</v>
+        <v>0.06822889664454065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8546833333333334</v>
+        <v>4.713280333333334</v>
       </c>
       <c r="H3">
-        <v>2.56405</v>
+        <v>14.139841</v>
       </c>
       <c r="I3">
-        <v>0.3097546281380015</v>
+        <v>0.6942627767023021</v>
       </c>
       <c r="J3">
-        <v>0.3097546281380014</v>
+        <v>0.6942627767023022</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.399086</v>
       </c>
       <c r="O3">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P3">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q3">
-        <v>4.956902939811111</v>
+        <v>27.33558995392511</v>
       </c>
       <c r="R3">
-        <v>44.6121264583</v>
+        <v>246.020309585326</v>
       </c>
       <c r="S3">
-        <v>0.08707904238117688</v>
+        <v>0.2311455733305466</v>
       </c>
       <c r="T3">
-        <v>0.08707904238117686</v>
+        <v>0.2311455733305466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8546833333333334</v>
+        <v>4.713280333333334</v>
       </c>
       <c r="H4">
-        <v>2.56405</v>
+        <v>14.139841</v>
       </c>
       <c r="I4">
-        <v>0.3097546281380015</v>
+        <v>0.6942627767023021</v>
       </c>
       <c r="J4">
-        <v>0.3097546281380014</v>
+        <v>0.6942627767023022</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N4">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O4">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P4">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q4">
-        <v>4.743365437077777</v>
+        <v>16.99390663320566</v>
       </c>
       <c r="R4">
-        <v>42.6902889337</v>
+        <v>152.945159698851</v>
       </c>
       <c r="S4">
-        <v>0.0833277804589099</v>
+        <v>0.1436978787902132</v>
       </c>
       <c r="T4">
-        <v>0.08332778045890987</v>
+        <v>0.1436978787902133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8546833333333334</v>
+        <v>4.713280333333334</v>
       </c>
       <c r="H5">
-        <v>2.56405</v>
+        <v>14.139841</v>
       </c>
       <c r="I5">
-        <v>0.3097546281380015</v>
+        <v>0.6942627767023021</v>
       </c>
       <c r="J5">
-        <v>0.3097546281380014</v>
+        <v>0.6942627767023022</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N5">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O5">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P5">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q5">
-        <v>5.349496600877778</v>
+        <v>29.70612172882755</v>
       </c>
       <c r="R5">
-        <v>48.1454694079</v>
+        <v>267.355095559448</v>
       </c>
       <c r="S5">
-        <v>0.09397582459896797</v>
+        <v>0.2511904279370016</v>
       </c>
       <c r="T5">
-        <v>0.09397582459896796</v>
+        <v>0.2511904279370016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.753828</v>
       </c>
       <c r="I6">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="J6">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N6">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O6">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P6">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q6">
-        <v>3.781223853836</v>
+        <v>2.142106515796</v>
       </c>
       <c r="R6">
-        <v>34.031014684524</v>
+        <v>19.278958642164</v>
       </c>
       <c r="S6">
-        <v>0.06642562023484952</v>
+        <v>0.01811332550580892</v>
       </c>
       <c r="T6">
-        <v>0.06642562023484951</v>
+        <v>0.01811332550580893</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.753828</v>
       </c>
       <c r="I7">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="J7">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.399086</v>
       </c>
       <c r="O7">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P7">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q7">
         <v>7.257019577912001</v>
@@ -883,10 +883,10 @@
         <v>65.31317620120801</v>
       </c>
       <c r="S7">
-        <v>0.1274857149835801</v>
+        <v>0.06136424909192819</v>
       </c>
       <c r="T7">
-        <v>0.1274857149835801</v>
+        <v>0.0613642490919282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.753828</v>
       </c>
       <c r="I8">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="J8">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N8">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O8">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P8">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q8">
-        <v>6.944395776967999</v>
+        <v>4.511521915212</v>
       </c>
       <c r="R8">
-        <v>62.499561992712</v>
+        <v>40.603697236908</v>
       </c>
       <c r="S8">
-        <v>0.1219937815036793</v>
+        <v>0.03814874021166918</v>
       </c>
       <c r="T8">
-        <v>0.1219937815036792</v>
+        <v>0.03814874021166919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.753828</v>
       </c>
       <c r="I9">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="J9">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N9">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O9">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P9">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q9">
-        <v>7.831785700856001</v>
+        <v>7.886345505376</v>
       </c>
       <c r="R9">
-        <v>70.48607130770401</v>
+        <v>70.97710954838401</v>
       </c>
       <c r="S9">
-        <v>0.1375827623106783</v>
+        <v>0.0666857330094376</v>
       </c>
       <c r="T9">
-        <v>0.1375827623106783</v>
+        <v>0.0666857330094376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4843330000000001</v>
+        <v>0.6263116666666667</v>
       </c>
       <c r="H10">
-        <v>1.452999</v>
+        <v>1.878935</v>
       </c>
       <c r="I10">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111802</v>
       </c>
       <c r="J10">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111803</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N10">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O10">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P10">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q10">
-        <v>1.463603148146334</v>
+        <v>1.072206533239444</v>
       </c>
       <c r="R10">
-        <v>13.172428333317</v>
+        <v>9.649858799155</v>
       </c>
       <c r="S10">
-        <v>0.02571144969231838</v>
+        <v>0.009066414673036987</v>
       </c>
       <c r="T10">
-        <v>0.02571144969231837</v>
+        <v>0.009066414673036989</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4843330000000001</v>
+        <v>0.6263116666666667</v>
       </c>
       <c r="H11">
-        <v>1.452999</v>
+        <v>1.878935</v>
       </c>
       <c r="I11">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111802</v>
       </c>
       <c r="J11">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111803</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.399086</v>
       </c>
       <c r="O11">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P11">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q11">
-        <v>2.808983839879334</v>
+        <v>3.632416850378889</v>
       </c>
       <c r="R11">
-        <v>25.280854558914</v>
+        <v>32.69175165341</v>
       </c>
       <c r="S11">
-        <v>0.04934605857951585</v>
+        <v>0.03071516206057978</v>
       </c>
       <c r="T11">
-        <v>0.04934605857951584</v>
+        <v>0.03071516206057979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4843330000000001</v>
+        <v>0.6263116666666667</v>
       </c>
       <c r="H12">
-        <v>1.452999</v>
+        <v>1.878935</v>
       </c>
       <c r="I12">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111802</v>
       </c>
       <c r="J12">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111803</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N12">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O12">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P12">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q12">
-        <v>2.687976145827333</v>
+        <v>2.258189887698333</v>
       </c>
       <c r="R12">
-        <v>24.191785312446</v>
+        <v>20.323708989285</v>
       </c>
       <c r="S12">
-        <v>0.04722028887073795</v>
+        <v>0.01909490876769331</v>
       </c>
       <c r="T12">
-        <v>0.04722028887073793</v>
+        <v>0.01909490876769331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4843330000000001</v>
+        <v>0.6263116666666667</v>
       </c>
       <c r="H13">
-        <v>1.452999</v>
+        <v>1.878935</v>
       </c>
       <c r="I13">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111802</v>
       </c>
       <c r="J13">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111803</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N13">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O13">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P13">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q13">
-        <v>3.031459297431334</v>
+        <v>3.947418632964445</v>
       </c>
       <c r="R13">
-        <v>27.28313367688201</v>
+        <v>35.52676769668</v>
       </c>
       <c r="S13">
-        <v>0.05325433558880516</v>
+        <v>0.03337876901980794</v>
       </c>
       <c r="T13">
-        <v>0.05325433558880515</v>
+        <v>0.03337876901980794</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1689346666666667</v>
+        <v>0.1980316666666667</v>
       </c>
       <c r="H14">
-        <v>0.506804</v>
+        <v>0.594095</v>
       </c>
       <c r="I14">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="J14">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N14">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O14">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P14">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q14">
-        <v>0.5105027119035556</v>
+        <v>0.3390178693594444</v>
       </c>
       <c r="R14">
-        <v>4.594524407132</v>
+        <v>3.051160824235</v>
       </c>
       <c r="S14">
-        <v>0.008968117355803908</v>
+        <v>0.002866683320699177</v>
       </c>
       <c r="T14">
-        <v>0.008968117355803907</v>
+        <v>0.002866683320699178</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1689346666666667</v>
+        <v>0.1980316666666667</v>
       </c>
       <c r="H15">
-        <v>0.506804</v>
+        <v>0.594095</v>
       </c>
       <c r="I15">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="J15">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.399086</v>
       </c>
       <c r="O15">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P15">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q15">
-        <v>0.9797695979048889</v>
+        <v>1.148523333018889</v>
       </c>
       <c r="R15">
-        <v>8.817926381144002</v>
+        <v>10.33670999717</v>
       </c>
       <c r="S15">
-        <v>0.01721183557065968</v>
+        <v>0.009711737875115502</v>
       </c>
       <c r="T15">
-        <v>0.01721183557065968</v>
+        <v>0.009711737875115504</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1689346666666667</v>
+        <v>0.1980316666666667</v>
       </c>
       <c r="H16">
-        <v>0.506804</v>
+        <v>0.594095</v>
       </c>
       <c r="I16">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="J16">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N16">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O16">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P16">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q16">
-        <v>0.9375622850462222</v>
+        <v>0.7140105013383333</v>
       </c>
       <c r="R16">
-        <v>8.438060565416</v>
+        <v>6.426094512044999</v>
       </c>
       <c r="S16">
-        <v>0.01647037009718897</v>
+        <v>0.006037563739215436</v>
       </c>
       <c r="T16">
-        <v>0.01647037009718896</v>
+        <v>0.006037563739215437</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1689346666666667</v>
+        <v>0.1980316666666667</v>
       </c>
       <c r="H17">
-        <v>0.506804</v>
+        <v>0.594095</v>
       </c>
       <c r="I17">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="J17">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N17">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O17">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P17">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q17">
-        <v>1.057368723430222</v>
+        <v>1.248122831684445</v>
       </c>
       <c r="R17">
-        <v>9.516318510872001</v>
+        <v>11.23310548516</v>
       </c>
       <c r="S17">
-        <v>0.01857503707418161</v>
+        <v>0.01055393602270584</v>
       </c>
       <c r="T17">
-        <v>0.01857503707418161</v>
+        <v>0.01055393602270584</v>
       </c>
     </row>
   </sheetData>
